--- a/biology/Botanique/Vieux_chêne_d'Oberlarg/Vieux_chêne_d'Oberlarg.xlsx
+++ b/biology/Botanique/Vieux_chêne_d'Oberlarg/Vieux_chêne_d'Oberlarg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vieux_ch%C3%AAne_d%27Oberlarg</t>
+          <t>Vieux_chêne_d'Oberlarg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le vieux chêne d'Oberlarg, situé sur le ban communal du village d'Oberlarg dans le Haut-Rhin, est considéré comme le plus vieil arbre du département et est répertorié parmi les dix plus vieux arbres de France.[réf. nécessaire] 
-La circonférence de son tronc est de 6,7 mètres, sa hauteur de 32 m et son âge estimé est supérieur à 500 ans[1]. 
-Sa forme étalée suggère qu'il a grandi initialement dans un milieu de pâturage ouvert. Son état sanitaire est très dégradé du fait de son âge et de la concurrence de la plantation d'épicéas qui l'entoure [1].
+La circonférence de son tronc est de 6,7 mètres, sa hauteur de 32 m et son âge estimé est supérieur à 500 ans. 
+Sa forme étalée suggère qu'il a grandi initialement dans un milieu de pâturage ouvert. Son état sanitaire est très dégradé du fait de son âge et de la concurrence de la plantation d'épicéas qui l'entoure .
 </t>
         </is>
       </c>
